--- a/M1_data/data.xlsx
+++ b/M1_data/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudychin/Gdrive/cmu/18-743/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/M1_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afinci/Documents/GitHub/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/M1_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>CPU_POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,12 @@
   <si>
     <t>stringsearch (1734Mhz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IPC </t>
+  </si>
+  <si>
+    <t>CPU_util</t>
   </si>
 </sst>
 </file>
@@ -89,14 +95,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -126,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -401,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
@@ -416,7 +422,7 @@
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -429,8 +435,14 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -446,8 +458,14 @@
       <c r="E3">
         <v>28.52</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1.76</v>
+      </c>
+      <c r="G3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -463,8 +481,14 @@
       <c r="E4">
         <v>28.6110925493</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1.77</v>
+      </c>
+      <c r="G4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -480,8 +504,14 @@
       <c r="E5">
         <v>33.1640836885</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1.77</v>
+      </c>
+      <c r="G5">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -497,8 +527,14 @@
       <c r="E6">
         <v>26.972843450500001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1.37</v>
+      </c>
+      <c r="G6">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -514,8 +550,14 @@
       <c r="E7">
         <v>27.816295979500001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1.38</v>
+      </c>
+      <c r="G7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -531,8 +573,14 @@
       <c r="E8">
         <v>33.965814341300003</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>1.37</v>
+      </c>
+      <c r="G8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -548,8 +596,14 @@
       <c r="E9">
         <v>26.535587188600001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>0.97</v>
+      </c>
+      <c r="G9">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -565,8 +619,14 @@
       <c r="E10">
         <v>28.928309497600001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>0.99</v>
+      </c>
+      <c r="G10">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -581,6 +641,12 @@
       </c>
       <c r="E11">
         <v>31.560027553600001</v>
+      </c>
+      <c r="F11">
+        <v>0.99</v>
+      </c>
+      <c r="G11">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/M1_data/data.xlsx
+++ b/M1_data/data.xlsx
@@ -410,16 +410,16 @@
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -450,19 +450,19 @@
         <v>0.15181538461499999</v>
       </c>
       <c r="C3">
+        <v>29.386153846199999</v>
+      </c>
+      <c r="D3">
+        <v>28.52</v>
+      </c>
+      <c r="E3">
+        <v>1.76</v>
+      </c>
+      <c r="F3">
+        <v>0.97</v>
+      </c>
+      <c r="G3">
         <v>0.193987692308</v>
-      </c>
-      <c r="D3">
-        <v>29.386153846199999</v>
-      </c>
-      <c r="E3">
-        <v>28.52</v>
-      </c>
-      <c r="F3">
-        <v>1.76</v>
-      </c>
-      <c r="G3">
-        <v>0.97</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -473,19 +473,19 @@
         <v>0.86878683595100004</v>
       </c>
       <c r="C4">
+        <v>30.301703975900001</v>
+      </c>
+      <c r="D4">
+        <v>28.6110925493</v>
+      </c>
+      <c r="E4">
+        <v>1.77</v>
+      </c>
+      <c r="F4">
+        <v>0.98</v>
+      </c>
+      <c r="G4">
         <v>2.14577347143E-2</v>
-      </c>
-      <c r="D4">
-        <v>30.301703975900001</v>
-      </c>
-      <c r="E4">
-        <v>28.6110925493</v>
-      </c>
-      <c r="F4">
-        <v>1.77</v>
-      </c>
-      <c r="G4">
-        <v>0.98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -496,19 +496,19 @@
         <v>2.4385019372299999</v>
       </c>
       <c r="C5">
+        <v>35.749225106499999</v>
+      </c>
+      <c r="D5">
+        <v>33.1640836885</v>
+      </c>
+      <c r="E5">
+        <v>1.77</v>
+      </c>
+      <c r="F5">
+        <v>0.97</v>
+      </c>
+      <c r="G5">
         <v>9.2462223944200003E-3</v>
-      </c>
-      <c r="D5">
-        <v>35.749225106499999</v>
-      </c>
-      <c r="E5">
-        <v>33.1640836885</v>
-      </c>
-      <c r="F5">
-        <v>1.77</v>
-      </c>
-      <c r="G5">
-        <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -519,19 +519,19 @@
         <v>0.150785942492</v>
       </c>
       <c r="C6">
+        <v>27.515974440899999</v>
+      </c>
+      <c r="D6">
+        <v>26.972843450500001</v>
+      </c>
+      <c r="E6">
+        <v>1.37</v>
+      </c>
+      <c r="F6">
+        <v>0.98</v>
+      </c>
+      <c r="G6">
         <v>2.1383386581500002E-2</v>
-      </c>
-      <c r="D6">
-        <v>27.515974440899999</v>
-      </c>
-      <c r="E6">
-        <v>26.972843450500001</v>
-      </c>
-      <c r="F6">
-        <v>1.37</v>
-      </c>
-      <c r="G6">
-        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -542,19 +542,19 @@
         <v>0.97848289136</v>
       </c>
       <c r="C7">
+        <v>29.610350727099998</v>
+      </c>
+      <c r="D7">
+        <v>27.816295979500001</v>
+      </c>
+      <c r="E7">
+        <v>1.38</v>
+      </c>
+      <c r="F7">
+        <v>0.99</v>
+      </c>
+      <c r="G7">
         <v>2.16706586826E-2</v>
-      </c>
-      <c r="D7">
-        <v>29.610350727099998</v>
-      </c>
-      <c r="E7">
-        <v>27.816295979500001</v>
-      </c>
-      <c r="F7">
-        <v>1.38</v>
-      </c>
-      <c r="G7">
-        <v>0.99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -565,19 +565,19 @@
         <v>2.7413520474299999</v>
       </c>
       <c r="C8">
+        <v>36.573929961099999</v>
+      </c>
+      <c r="D8">
+        <v>33.965814341300003</v>
+      </c>
+      <c r="E8">
+        <v>1.37</v>
+      </c>
+      <c r="F8">
+        <v>0.99</v>
+      </c>
+      <c r="G8">
         <v>3.7891421159899998E-3</v>
-      </c>
-      <c r="D8">
-        <v>36.573929961099999</v>
-      </c>
-      <c r="E8">
-        <v>33.965814341300003</v>
-      </c>
-      <c r="F8">
-        <v>1.37</v>
-      </c>
-      <c r="G8">
-        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -588,19 +588,19 @@
         <v>0.151081850534</v>
       </c>
       <c r="C9">
+        <v>27.5071174377</v>
+      </c>
+      <c r="D9">
+        <v>26.535587188600001</v>
+      </c>
+      <c r="E9">
+        <v>0.97</v>
+      </c>
+      <c r="F9">
+        <v>0.83</v>
+      </c>
+      <c r="G9">
         <v>2.3637010676199999E-2</v>
-      </c>
-      <c r="D9">
-        <v>27.5071174377</v>
-      </c>
-      <c r="E9">
-        <v>26.535587188600001</v>
-      </c>
-      <c r="F9">
-        <v>0.97</v>
-      </c>
-      <c r="G9">
-        <v>0.83</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -611,19 +611,19 @@
         <v>0.782676567657</v>
       </c>
       <c r="C10">
+        <v>30.8558855886</v>
+      </c>
+      <c r="D10">
+        <v>28.928309497600001</v>
+      </c>
+      <c r="E10">
+        <v>0.99</v>
+      </c>
+      <c r="F10">
+        <v>0.51</v>
+      </c>
+      <c r="G10">
         <v>2.1599193252699999E-2</v>
-      </c>
-      <c r="D10">
-        <v>30.8558855886</v>
-      </c>
-      <c r="E10">
-        <v>28.928309497600001</v>
-      </c>
-      <c r="F10">
-        <v>0.99</v>
-      </c>
-      <c r="G10">
-        <v>0.51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -634,19 +634,19 @@
         <v>2.0286532178700001</v>
       </c>
       <c r="C11">
+        <v>33.713343829999999</v>
+      </c>
+      <c r="D11">
+        <v>31.560027553600001</v>
+      </c>
+      <c r="E11">
+        <v>0.99</v>
+      </c>
+      <c r="F11">
+        <v>0.44</v>
+      </c>
+      <c r="G11">
         <v>1.54400708522E-2</v>
-      </c>
-      <c r="D11">
-        <v>33.713343829999999</v>
-      </c>
-      <c r="E11">
-        <v>31.560027553600001</v>
-      </c>
-      <c r="F11">
-        <v>0.99</v>
-      </c>
-      <c r="G11">
-        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/M1_data/data.xlsx
+++ b/M1_data/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>CPU_POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,58 @@
   </si>
   <si>
     <t>stringsearch (1734Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alexnet (76.8Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alexnet (537.6Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alexnet (998.4Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>googlenet (76.8Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>googlenet (537.6Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>googlenet (998.4Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnset152 (76.8Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet152 (537.6Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet152 (998.4Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU MEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720 MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>820 MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2224 MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -416,7 +468,7 @@
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -429,8 +481,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -447,7 +502,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -464,7 +519,7 @@
         <v>28.6110925493</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -481,7 +536,7 @@
         <v>33.1640836885</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -498,7 +553,7 @@
         <v>26.972843450500001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -515,7 +570,7 @@
         <v>27.816295979500001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -532,7 +587,7 @@
         <v>33.965814341300003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -549,7 +604,7 @@
         <v>26.535587188600001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -566,7 +621,7 @@
         <v>28.928309497600001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -581,6 +636,168 @@
       </c>
       <c r="E11">
         <v>31.560027553600001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1.6493560477</v>
+      </c>
+      <c r="C13">
+        <v>0.52078262350899995</v>
+      </c>
+      <c r="D13">
+        <v>34.441567291299997</v>
+      </c>
+      <c r="E13">
+        <v>30.6971039182</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1.88985</v>
+      </c>
+      <c r="C14">
+        <v>2.14049821429</v>
+      </c>
+      <c r="D14">
+        <v>36.168750000000003</v>
+      </c>
+      <c r="E14">
+        <v>32.557142857099997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2.0312729411800001</v>
+      </c>
+      <c r="C15">
+        <v>4.5826635294100004</v>
+      </c>
+      <c r="D15">
+        <v>38.451764705899997</v>
+      </c>
+      <c r="E15">
+        <v>35.2623529412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.67863615561</v>
+      </c>
+      <c r="C16">
+        <v>0.57695325269700004</v>
+      </c>
+      <c r="D16">
+        <v>37.509398496199999</v>
+      </c>
+      <c r="E16">
+        <v>33.602729650199997</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1.85158557692</v>
+      </c>
+      <c r="C17">
+        <v>2.7311394230800001</v>
+      </c>
+      <c r="D17">
+        <v>39.699038461500002</v>
+      </c>
+      <c r="E17">
+        <v>35.922596153800001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.9103611111100001</v>
+      </c>
+      <c r="C18">
+        <v>6.0862236111100003</v>
+      </c>
+      <c r="D18">
+        <v>42.210416666699999</v>
+      </c>
+      <c r="E18">
+        <v>39.032638888900003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2.2093594470000002</v>
+      </c>
+      <c r="C19">
+        <v>0.59300543120500004</v>
+      </c>
+      <c r="D19">
+        <v>40.184002633299997</v>
+      </c>
+      <c r="E19">
+        <v>36.210418038199997</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2.3617817109099999</v>
+      </c>
+      <c r="C20">
+        <v>2.6490668633199999</v>
+      </c>
+      <c r="D20">
+        <v>42.306293018700003</v>
+      </c>
+      <c r="E20">
+        <v>38.3761061947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2.4679863013699999</v>
+      </c>
+      <c r="C21">
+        <v>5.78504657534</v>
+      </c>
+      <c r="D21">
+        <v>45.248630136999999</v>
+      </c>
+      <c r="E21">
+        <v>41.871232876699999</v>
       </c>
     </row>
   </sheetData>

--- a/M1_data/data.xlsx
+++ b/M1_data/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>CPU_POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>2224 MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latency of a frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -466,9 +470,10 @@
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -484,8 +489,11 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -502,7 +510,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -519,7 +527,7 @@
         <v>28.6110925493</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -536,7 +544,7 @@
         <v>33.1640836885</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -553,7 +561,7 @@
         <v>26.972843450500001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -570,7 +578,7 @@
         <v>27.816295979500001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -587,7 +595,7 @@
         <v>33.965814341300003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -604,7 +612,7 @@
         <v>26.535587188600001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -621,7 +629,7 @@
         <v>28.928309497600001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -638,7 +646,7 @@
         <v>31.560027553600001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -657,8 +665,11 @@
       <c r="H13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -674,8 +685,14 @@
       <c r="E14">
         <v>32.557142857099997</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -691,8 +708,14 @@
       <c r="E15">
         <v>35.2623529412</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -711,8 +734,11 @@
       <c r="H16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -728,8 +754,14 @@
       <c r="E17">
         <v>35.922596153800001</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -745,8 +777,14 @@
       <c r="E18">
         <v>39.032638888900003</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -765,8 +803,11 @@
       <c r="H19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -782,8 +823,14 @@
       <c r="E20">
         <v>38.3761061947</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -798,6 +845,12 @@
       </c>
       <c r="E21">
         <v>41.871232876699999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>

--- a/M1_data/data.xlsx
+++ b/M1_data/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -144,6 +144,3001 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>CPU_POWER (W)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU_POWER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bitcount (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bitcount (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bitcount (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jpeg (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jpeg (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jpeg (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stringsearch (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stringsearch (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>stringsearch (1734Mhz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.151815384615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.868786835951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.43850193723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.150785942492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97848289136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.74135204743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.151081850534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.782676567657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.02865321787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1944493024"/>
+        <c:axId val="-1938969280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1944493024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1938969280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1938969280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1944493024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> IPC and CPU Utilization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bitcount (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bitcount (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bitcount (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jpeg (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jpeg (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jpeg (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stringsearch (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stringsearch (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>stringsearch (1734Mhz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU_util</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bitcount (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bitcount (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bitcount (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jpeg (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jpeg (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jpeg (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stringsearch (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stringsearch (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>stringsearch (1734Mhz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="-1938599472"/>
+        <c:axId val="-1943191344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1938599472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1943191344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1943191344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1938599472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>CPU and GPU Temperature (C)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU_TEMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bitcount (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bitcount (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bitcount (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jpeg (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jpeg (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jpeg (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stringsearch (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stringsearch (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>stringsearch (1734Mhz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>29.3861538462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.3017039759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.7492251065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.5159744409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.6103507271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.5739299611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.5071174377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.8558855886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.71334383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU_TEMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bitcount (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bitcount (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bitcount (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jpeg (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jpeg (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jpeg (1734Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stringsearch (102Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>stringsearch (921.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>stringsearch (1734Mhz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>28.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.6110925493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.1640836885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.9728434505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.8162959795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.9658143413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5355871886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.9283094976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.5600275536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="-1941623136"/>
+        <c:axId val="-1941266016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1941623136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1941266016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1941266016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1941623136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -410,7 +3405,7 @@
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,5 +3647,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/M1_data/data.xlsx
+++ b/M1_data/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afinci/Documents/GitHub/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/M1_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudychin/Gdrive/cmu/18-743/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/M1_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>CPU_POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,26 +86,102 @@
   <si>
     <t>CPU_util</t>
   </si>
+  <si>
+    <t>alexnet (76.8Mhz)</t>
+  </si>
+  <si>
+    <t>720 MB</t>
+  </si>
+  <si>
+    <t>alexnet (537.6Mhz)</t>
+  </si>
+  <si>
+    <t>alexnet (998.4Mhz)</t>
+  </si>
+  <si>
+    <t>googlenet (76.8Mhz)</t>
+  </si>
+  <si>
+    <t>820 MB</t>
+  </si>
+  <si>
+    <t>googlenet (537.6Mhz)</t>
+  </si>
+  <si>
+    <t>googlenet (998.4Mhz)</t>
+  </si>
+  <si>
+    <t>resnset152 (76.8Mhz)</t>
+  </si>
+  <si>
+    <t>2224 MB</t>
+  </si>
+  <si>
+    <t>resnet152 (537.6Mhz)</t>
+  </si>
+  <si>
+    <t>resnet152 (998.4Mhz)</t>
+  </si>
+  <si>
+    <t>Memory overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlexNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogLeNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,11 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -147,7 +226,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -210,7 +289,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -327,11 +406,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1944493024"/>
-        <c:axId val="-1938969280"/>
+        <c:axId val="-1565052816"/>
+        <c:axId val="-1564769024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1944493024"/>
+        <c:axId val="-1565052816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,10 +450,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938969280"/>
+        <c:crossAx val="-1564769024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -382,7 +461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1938969280"/>
+        <c:axId val="-1564769024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,10 +508,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1944493024"/>
+        <c:crossAx val="-1565052816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -470,7 +549,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -484,7 +563,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -547,7 +626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -759,11 +838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1938599472"/>
-        <c:axId val="-1943191344"/>
+        <c:axId val="-1565884400"/>
+        <c:axId val="-1565882080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1938599472"/>
+        <c:axId val="-1565884400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,10 +882,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943191344"/>
+        <c:crossAx val="-1565882080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -814,7 +893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943191344"/>
+        <c:axId val="-1565882080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,10 +941,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938599472"/>
+        <c:crossAx val="-1565884400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -905,7 +984,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -935,7 +1014,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -949,7 +1028,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1012,7 +1091,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1224,11 +1303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1941623136"/>
-        <c:axId val="-1941266016"/>
+        <c:axId val="-1542480800"/>
+        <c:axId val="-1542478480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1941623136"/>
+        <c:axId val="-1542480800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,10 +1347,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941266016"/>
+        <c:crossAx val="-1542478480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1279,7 +1358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1941266016"/>
+        <c:axId val="-1542478480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,10 +1406,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941623136"/>
+        <c:crossAx val="-1542480800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,7 +1449,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1400,7 +1479,1276 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>76.8 Mhz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$27:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogLeNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet-152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(工作表1!$G$17,工作表1!$G$18,工作表1!$G$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.520782624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.576953253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.593005431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>537.6 Mhz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$27:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogLeNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet-152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$20:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.140498214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.731139423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.649066863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>998.4 Mhz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$27:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogLeNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet-152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$23:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.582663529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.086223611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.785046575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1541096912"/>
+        <c:axId val="-1541095136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1541096912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1541095136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1541095136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Power</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t>(W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1541096912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>76.8 Mhz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$27:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogLeNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet-152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$17:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>537.6 Mhz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$27:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogLeNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet-152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$20:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>998.4 Mhz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$27:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AlexNet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GoogLeNet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ResNet-152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$23:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1563219872"/>
+        <c:axId val="-1564515840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1563219872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1564515840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1564515840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Latency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1563219872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPU Temp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$17:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>alexnet (76.8Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>googlenet (76.8Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>resnset152 (76.8Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alexnet (537.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>googlenet (537.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>resnet152 (537.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>alexnet (998.4Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>googlenet (998.4Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>resnet152 (998.4Mhz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$17:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30.69710392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.60272965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.21041804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.55714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.92259615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.37610619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.26235294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.03263889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.87123288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPU Temp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$17:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>alexnet (76.8Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>googlenet (76.8Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>resnset152 (76.8Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alexnet (537.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>googlenet (537.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>resnet152 (537.6Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>alexnet (998.4Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>googlenet (998.4Mhz)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>resnet152 (998.4Mhz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$17:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>34.44156729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5093985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.18400263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.16875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.69903846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.30629302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.45176471</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.21041667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.24863014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1540605488"/>
+        <c:axId val="-1561165728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1540605488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1561165728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1561165728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1540605488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1531,6 +2879,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3012,6 +4480,1515 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3108,16 +6085,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3131,6 +6108,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>643466</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3402,22 +6469,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3437,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3460,7 +6528,7 @@
         <v>0.193987692308</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +6551,7 @@
         <v>2.14577347143E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3506,7 +6574,7 @@
         <v>9.2462223944200003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3529,7 +6597,7 @@
         <v>2.1383386581500002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3552,7 +6620,7 @@
         <v>2.16706586826E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3575,7 +6643,7 @@
         <v>3.7891421159899998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3598,7 +6666,7 @@
         <v>2.3637010676199999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3621,7 +6689,7 @@
         <v>2.1599193252699999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3642,6 +6710,245 @@
       </c>
       <c r="G11">
         <v>1.54400708522E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.649356048</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30.69710392</v>
+      </c>
+      <c r="D17" s="1">
+        <v>34.441567290000002</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.52078262399999997</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.678636156</v>
+      </c>
+      <c r="C18" s="1">
+        <v>33.602729650000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>37.509398500000003</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.576953253</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.2093594470000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>36.21041804</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40.184002630000002</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.59300543100000003</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.88985</v>
+      </c>
+      <c r="C20" s="1">
+        <v>32.557142859999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36.168750000000003</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>2.140498214</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.851585577</v>
+      </c>
+      <c r="C21" s="1">
+        <v>35.922596149999997</v>
+      </c>
+      <c r="D21" s="1">
+        <v>39.699038459999997</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>2.7311394230000001</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.3617817109999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>38.376106190000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42.306293019999998</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>2.6490668629999998</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.0312729410000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>35.26235294</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38.451764709999999</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>4.5826635290000004</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.9103611110000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>39.032638890000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42.210416670000001</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>6.0862236110000003</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.4679863009999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41.871232880000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45.248630140000003</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>5.785046575</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/M1_data/data.xlsx
+++ b/M1_data/data.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudychin/gdrive/cmu/18-743/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/M1_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21120" windowHeight="14560" tabRatio="992"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,143 +32,125 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
-    <t xml:space="preserve">CPU_POWER</t>
+    <t>CPU_POWER</t>
   </si>
   <si>
-    <t xml:space="preserve">CPU_TEMP</t>
+    <t>CPU_TEMP</t>
   </si>
   <si>
-    <t xml:space="preserve">GPU_TEMP</t>
+    <t>GPU_TEMP</t>
   </si>
   <si>
     <t xml:space="preserve">IPC </t>
   </si>
   <si>
-    <t xml:space="preserve">CPU_util</t>
+    <t>CPU_util</t>
   </si>
   <si>
-    <t xml:space="preserve">GPU_POWER</t>
+    <t>GPU_POWER</t>
   </si>
   <si>
-    <t xml:space="preserve">bitcount (102Mhz)</t>
+    <t>bitcount (102Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">bitcount (921.6Mhz)</t>
+    <t>bitcount (921.6Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">bitcount (1734Mhz)</t>
+    <t>bitcount (1734Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">jpeg (102Mhz)</t>
+    <t>jpeg (102Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">jpeg (921.6Mhz)</t>
+    <t>jpeg (921.6Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">jpeg (1734Mhz)</t>
+    <t>jpeg (1734Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">stringsearch (102Mhz)</t>
+    <t>stringsearch (102Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">stringsearch (921.6Mhz)</t>
+    <t>stringsearch (921.6Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">stringsearch (1734Mhz)</t>
+    <t>stringsearch (1734Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">Accuracy</t>
+    <t>Accuracy</t>
   </si>
   <si>
-    <t xml:space="preserve">Memory overhead</t>
+    <t>Memory overhead</t>
   </si>
   <si>
-    <t xml:space="preserve">Latency</t>
+    <t>Latency</t>
   </si>
   <si>
-    <t xml:space="preserve">alexnet (76.8Mhz)</t>
+    <t>alexnet (76.8Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">720 MB</t>
+    <t>720 MB</t>
   </si>
   <si>
-    <t xml:space="preserve">googlenet (76.8Mhz)</t>
+    <t>googlenet (76.8Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">820 MB</t>
+    <t>820 MB</t>
   </si>
   <si>
-    <t xml:space="preserve">resnset152 (76.8Mhz)</t>
+    <t>resnset152 (76.8Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">2224 MB</t>
+    <t>2224 MB</t>
   </si>
   <si>
-    <t xml:space="preserve">alexnet (537.6Mhz)</t>
+    <t>alexnet (537.6Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">googlenet (537.6Mhz)</t>
+    <t>googlenet (537.6Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">resnet152 (537.6Mhz)</t>
+    <t>resnet152 (537.6Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">alexnet (998.4Mhz)</t>
+    <t>alexnet (998.4Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">googlenet (998.4Mhz)</t>
+    <t>googlenet (998.4Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">resnet152 (998.4Mhz)</t>
+    <t>resnet152 (998.4Mhz)</t>
   </si>
   <si>
-    <t xml:space="preserve">AlexNet</t>
+    <t>AlexNet</t>
   </si>
   <si>
-    <t xml:space="preserve">GoogLeNet</t>
+    <t>GoogLeNet</t>
   </si>
   <si>
-    <t xml:space="preserve">ResNet-152</t>
+    <t>ResNet-152</t>
   </si>
   <si>
-    <t xml:space="preserve">Normalized</t>
+    <t>Normalized</t>
   </si>
   <si>
-    <t xml:space="preserve">Power</t>
+    <t>Power</t>
   </si>
   <si>
-    <t xml:space="preserve">Mem</t>
+    <t>Mem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -181,52 +173,6 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF666666"/>
-      <name val="Cabin"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +183,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -245,57 +191,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -354,15 +263,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -371,26 +295,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -400,10 +324,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -424,7 +350,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -432,13 +358,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -512,13 +451,21 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="19783199"/>
-        <c:axId val="51822924"/>
+        <c:axId val="-1521021504"/>
+        <c:axId val="-1519361744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="19783199"/>
+        <c:axId val="-1521021504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,37 +478,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51822924"/>
+        <c:crossAx val="-1519361744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51822924"/>
+        <c:axId val="-1519361744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,7 +521,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -588,23 +538,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19783199"/>
+        <c:crossAx val="-1521021504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -617,25 +569,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -644,26 +604,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -673,10 +633,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -697,7 +659,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -705,13 +667,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -801,7 +776,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -809,13 +784,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -889,13 +877,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:overlap val="0"/>
-        <c:axId val="47867408"/>
-        <c:axId val="82550078"/>
+        <c:axId val="-1408476864"/>
+        <c:axId val="-1408761648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47867408"/>
+        <c:axId val="-1408476864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,37 +903,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82550078"/>
+        <c:crossAx val="-1408761648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82550078"/>
+        <c:axId val="-1408761648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +946,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -965,23 +963,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47867408"/>
+        <c:crossAx val="-1408476864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -994,6 +994,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1004,25 +1005,33 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1031,26 +1040,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -1060,10 +1069,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1084,7 +1095,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1092,13 +1103,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1188,7 +1212,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1196,13 +1220,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1276,13 +1313,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:overlap val="0"/>
-        <c:axId val="61996136"/>
-        <c:axId val="32779919"/>
+        <c:axId val="-1409012336"/>
+        <c:axId val="-1387986880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61996136"/>
+        <c:axId val="-1409012336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,37 +1339,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32779919"/>
+        <c:crossAx val="-1387986880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32779919"/>
+        <c:axId val="-1387986880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1382,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1352,23 +1399,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61996136"/>
+        <c:crossAx val="-1409012336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1381,6 +1430,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1391,27 +1441,37 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1420,19 +1480,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"76.8 Mhz"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>76.8 Mhz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>76.8 Mhz</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1440,13 +1492,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1467,7 +1532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$17,工作表1!$G$18,工作表1!$G$19</c:f>
+              <c:f>(工作表1!$G$17,工作表1!$G$18,工作表1!$G$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1488,19 +1553,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"537.6 Mhz"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>537.6 Mhz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>537.6 Mhz</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1508,13 +1565,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1556,19 +1626,11 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"998.4 Mhz"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>998.4 Mhz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>998.4 Mhz</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1576,13 +1638,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1620,13 +1695,21 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="91286917"/>
-        <c:axId val="38628705"/>
+        <c:axId val="-1387830416"/>
+        <c:axId val="-1389392912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91286917"/>
+        <c:axId val="-1387830416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,37 +1722,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38628705"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-1389392912"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38628705"/>
+        <c:axId val="-1389392912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +1765,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1692,26 +1778,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="2000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="2000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="2000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="2000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -1721,6 +1807,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1734,24 +1821,26 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91286917"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="-1387830416"/>
+        <c:crossesAt val="1.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1763,6 +1852,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1773,27 +1863,37 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1802,19 +1902,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"76.8 Mhz"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>76.8 Mhz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>76.8 Mhz</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1822,13 +1914,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1870,19 +1975,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"537.6 Mhz"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>537.6 Mhz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>537.6 Mhz</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1890,13 +1987,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1938,19 +2048,11 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"998.4 Mhz"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>998.4 Mhz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>998.4 Mhz</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1958,13 +2060,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2002,13 +2117,21 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="82418676"/>
-        <c:axId val="63261108"/>
+        <c:axId val="-1387800032"/>
+        <c:axId val="-1388308080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82418676"/>
+        <c:axId val="-1387800032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,37 +2144,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63261108"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-1388308080"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63261108"/>
+        <c:axId val="-1388308080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2187,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2074,26 +2200,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="2000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="2000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="2000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="2000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Calibri"/>
@@ -2103,6 +2229,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2116,24 +2243,26 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82418676"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="-1387800032"/>
+        <c:crossesAt val="1.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2145,6 +2274,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2155,27 +2285,37 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2184,19 +2324,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"CPU Temp"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CPU Temp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>CPU Temp</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2204,13 +2336,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2288,19 +2433,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"GPU Temp"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GPU Temp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>GPU Temp</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2308,13 +2445,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2388,13 +2538,21 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="28121945"/>
-        <c:axId val="33117546"/>
+        <c:axId val="-1408767968"/>
+        <c:axId val="-1408498960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28121945"/>
+        <c:axId val="-1408767968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,37 +2565,40 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33117546"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-1408498960"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33117546"/>
+        <c:axId val="-1408498960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2608,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2460,26 +2621,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="2000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="2000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="666666"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Cabin"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="2000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="2000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="666666"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Cabin"/>
@@ -2489,6 +2650,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2502,24 +2664,26 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28121945"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="-1408767968"/>
+        <c:crossesAt val="1.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2531,6 +2695,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2541,27 +2706,37 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="18"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2590,12 +2765,25 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2624,16 +2812,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,7 +2843,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="FF420E"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2663,12 +2851,25 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2700,13 +2901,13 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.32809742030703</c:v>
+                  <c:v>1.328097420307028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.20104895104895</c:v>
+                  <c:v>1.201048951048951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.13888888888889</c:v>
+                  <c:v>1.138888888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2728,7 +2929,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="FFD320"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2736,12 +2937,25 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2770,28 +2984,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26237646259453</c:v>
+                  <c:v>1.262376462594533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.34615384615385</c:v>
+                  <c:v>1.346153846153846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.08888888888889</c:v>
+                  <c:v>3.088888888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="14004280"/>
-        <c:axId val="14491753"/>
+        <c:axId val="-1408564880"/>
+        <c:axId val="-1407847680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14004280"/>
+        <c:axId val="-1408564880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,36 +3025,39 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="2000" spc="-1" strike="noStrike">
+              <a:defRPr sz="2000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14491753"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-1407847680"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14491753"/>
+        <c:axId val="-1407847680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,9 +3065,9 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2855,26 +3079,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="2000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="2000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="2000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="2000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -2884,6 +3108,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2893,43 +3118,46 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14004280"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossAx val="-1408564880"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2940,20 +3168,26 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -2967,14 +3201,14 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14890680" y="209520"/>
-        <a:ext cx="13636440" cy="3930120"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2997,14 +3231,14 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 5"/>
+        <xdr:cNvPr id="3" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19208520" y="4241520"/>
-        <a:ext cx="10191600" cy="4190760"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3027,14 +3261,14 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 8"/>
+        <xdr:cNvPr id="4" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23691600" y="114480"/>
-        <a:ext cx="12848760" cy="6361920"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3057,14 +3291,14 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="5" name="圖表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12061080" y="7137360"/>
-        <a:ext cx="5570640" cy="2771640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3076,25 +3310,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>756360</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40926</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>122734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>488880</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>89240</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 4"/>
+        <xdr:cNvPr id="6" name="圖表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9804960" y="5693760"/>
-        <a:ext cx="7485840" cy="3793320"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3117,14 +3351,14 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 6"/>
+        <xdr:cNvPr id="7" name="圖表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14923440" y="8610480"/>
-        <a:ext cx="6239880" cy="2794320"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3139,22 +3373,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>24840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>125279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1967760" y="6424200"/>
-        <a:ext cx="7583760" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3167,619 +3401,862 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.6814814814815"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.151815384615</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>29.3861538462</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3">
+        <v>0.15181538461499999</v>
+      </c>
+      <c r="C3">
+        <v>29.386153846199999</v>
+      </c>
+      <c r="D3">
         <v>28.52</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>1.76</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>0.97</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>0.193987692308</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.868786835951</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>30.3017039759</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="B4">
+        <v>0.86878683595100004</v>
+      </c>
+      <c r="C4">
+        <v>30.301703975900001</v>
+      </c>
+      <c r="D4">
         <v>28.6110925493</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>1.77</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>0.98</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0.0214577347143</v>
+      <c r="G4">
+        <v>2.14577347143E-2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>2.43850193723</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>35.7492251065</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="B5">
+        <v>2.4385019372299999</v>
+      </c>
+      <c r="C5">
+        <v>35.749225106499999</v>
+      </c>
+      <c r="D5">
         <v>33.1640836885</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>1.77</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>0.97</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0.00924622239442</v>
+      <c r="G5">
+        <v>9.2462223944200003E-3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.150785942492</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>27.5159744409</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>26.9728434505</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6">
+        <v>27.515974440899999</v>
+      </c>
+      <c r="D6">
+        <v>26.972843450500001</v>
+      </c>
+      <c r="E6">
         <v>1.37</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>0.98</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>0.0213833865815</v>
+      <c r="G6">
+        <v>2.1383386581500002E-2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.97848289136</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>29.6103507271</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>27.8162959795</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7">
+        <v>29.610350727099998</v>
+      </c>
+      <c r="D7">
+        <v>27.816295979500001</v>
+      </c>
+      <c r="E7">
         <v>1.38</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>0.99</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>0.0216706586826</v>
+      <c r="G7">
+        <v>2.16706586826E-2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>2.74135204743</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>36.5739299611</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>33.9658143413</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="B8">
+        <v>2.7413520474299999</v>
+      </c>
+      <c r="C8">
+        <v>36.573929961099999</v>
+      </c>
+      <c r="D8">
+        <v>33.965814341300003</v>
+      </c>
+      <c r="E8">
         <v>1.37</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>0.99</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>0.00378914211599</v>
+      <c r="G8">
+        <v>3.7891421159899998E-3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.151081850534</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>27.5071174377</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>26.5355871886</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9">
+        <v>26.535587188600001</v>
+      </c>
+      <c r="E9">
         <v>0.97</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>0.83</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>0.0236370106762</v>
+      <c r="G9">
+        <v>2.3637010676199999E-2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>0.782676567657</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>30.8558855886</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>28.9283094976</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10">
+        <v>28.928309497600001</v>
+      </c>
+      <c r="E10">
         <v>0.99</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>0.51</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>0.0215991932527</v>
+      <c r="G10">
+        <v>2.1599193252699999E-2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>2.02865321787</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>33.71334383</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>31.5600275536</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="B11">
+        <v>2.0286532178700001</v>
+      </c>
+      <c r="C11">
+        <v>33.713343829999999</v>
+      </c>
+      <c r="D11">
+        <v>31.560027553600001</v>
+      </c>
+      <c r="E11">
         <v>0.99</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>0.44</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>0.0154400708522</v>
+      <c r="G11">
+        <v>1.54400708522E-2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="0" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>1.649356048</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>30.69710392</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>34.44156729</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="D17" s="1">
+        <v>34.441567290000002</v>
+      </c>
+      <c r="E17">
         <v>57.2</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="n">
-        <v>0.520782624</v>
+      <c r="G17" s="1">
+        <v>0.52078262399999997</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="1">
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>1.678636156</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>33.60272965</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>37.5093985</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="C18" s="1">
+        <v>33.602729650000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>37.509398500000003</v>
+      </c>
+      <c r="E18">
         <v>68.7</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1">
         <v>0.576953253</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="1">
         <v>1.44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>2.209359447</v>
-      </c>
-      <c r="C19" s="1" t="n">
+      <c r="B19" s="1">
+        <v>2.2093594470000002</v>
+      </c>
+      <c r="C19" s="1">
         <v>36.21041804</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>40.18400263</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="D19" s="1">
+        <v>40.184002630000002</v>
+      </c>
+      <c r="E19">
         <v>77</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="n">
-        <v>0.593005431</v>
+      <c r="G19" s="1">
+        <v>0.59300543100000003</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="1">
         <v>1.51</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>1.88985</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>32.55714286</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>36.16875</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="C20" s="1">
+        <v>32.557142859999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36.168750000000003</v>
+      </c>
+      <c r="E20">
         <v>57.2</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>2.140498214</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="1">
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>1.851585577</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>35.92259615</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>39.69903846</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="C21" s="1">
+        <v>35.922596149999997</v>
+      </c>
+      <c r="D21" s="1">
+        <v>39.699038459999997</v>
+      </c>
+      <c r="E21">
         <v>68.7</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="n">
-        <v>2.731139423</v>
+      <c r="G21" s="1">
+        <v>2.7311394230000001</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <v>0.28</v>
+      <c r="I21" s="1">
+        <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>2.361781711</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>38.37610619</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>42.30629302</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="B22" s="1">
+        <v>2.3617817109999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>38.376106190000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42.306293019999998</v>
+      </c>
+      <c r="E22">
         <v>77</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="n">
-        <v>2.649066863</v>
+      <c r="G22" s="1">
+        <v>2.6490668629999998</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>2.031272941</v>
-      </c>
-      <c r="C23" s="1" t="n">
+      <c r="B23" s="1">
+        <v>2.0312729410000001</v>
+      </c>
+      <c r="C23" s="1">
         <v>35.26235294</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <v>38.45176471</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23" s="1">
+        <v>38.451764709999999</v>
+      </c>
+      <c r="E23">
         <v>57.2</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="n">
-        <v>4.582663529</v>
-      </c>
-      <c r="H23" s="1" t="n">
+      <c r="G23" s="1">
+        <v>4.5826635290000004</v>
+      </c>
+      <c r="H23" s="1">
         <v>720</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="1">
         <v>0.12</v>
       </c>
-      <c r="J23" s="0" t="n">
-        <f aca="false">(I25-I23)/I23*100</f>
+      <c r="J23">
+        <f>(I25-I23)/I23*100</f>
         <v>100</v>
       </c>
-      <c r="K23" s="0" t="n">
-        <f aca="false">(I24-I23)/I23*100</f>
+      <c r="K23">
+        <f>(I24-I23)/I23*100</f>
         <v>75</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1.910361111</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>39.03263889</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>42.21041667</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="B24" s="1">
+        <v>1.9103611110000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>39.032638890000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42.210416670000001</v>
+      </c>
+      <c r="E24">
         <v>68.7</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="n">
-        <v>6.086223611</v>
-      </c>
-      <c r="H24" s="1" t="n">
+      <c r="G24" s="1">
+        <v>6.0862236110000003</v>
+      </c>
+      <c r="H24" s="1">
         <v>820</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="1">
         <v>0.21</v>
       </c>
-      <c r="J24" s="0" t="n">
-        <f aca="false">(I25-I24)/I24*100</f>
-        <v>14.2857142857143</v>
+      <c r="J24">
+        <f>(I25-I24)/I24*100</f>
+        <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>2.467986301</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>41.87123288</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>45.24863014</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="B25" s="1">
+        <v>2.4679863009999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41.871232880000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45.248630140000003</v>
+      </c>
+      <c r="E25">
         <v>77</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="1">
         <v>5.785046575</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="1">
         <v>2224</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="1">
         <v>0.24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">I24/I23</f>
+      <c r="C31">
+        <f>I24/I23</f>
         <v>1.75</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <f aca="false">G24/G23</f>
-        <v>1.32809742030703</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <f aca="false">E24/E23</f>
-        <v>1.20104895104895</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <f aca="false">H24/H23</f>
-        <v>1.13888888888889</v>
+      <c r="D31">
+        <f>G24/G23</f>
+        <v>1.3280974203070277</v>
+      </c>
+      <c r="E31">
+        <f>E24/E23</f>
+        <v>1.201048951048951</v>
+      </c>
+      <c r="F31">
+        <f>H24/H23</f>
+        <v>1.1388888888888888</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <f aca="false">I25/I23</f>
+      <c r="C32">
+        <f>I25/I23</f>
         <v>2</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <f aca="false">G25/G23</f>
-        <v>1.26237646259453</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <f aca="false">E25/E23</f>
-        <v>1.34615384615385</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <f aca="false">H25/H23</f>
-        <v>3.08888888888889</v>
+      <c r="D32">
+        <f>G25/G23</f>
+        <v>1.2623764625945331</v>
+      </c>
+      <c r="E32">
+        <f>E25/E23</f>
+        <v>1.346153846153846</v>
+      </c>
+      <c r="F32">
+        <f>H25/H23</f>
+        <v>3.088888888888889</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>